--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategoryMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategoryMERIT9_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP_MedicationCat" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -362,15 +365,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -392,28 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright Japan Association of Medical Informatics (JAMI)  一般社団法人日本医療情報学会</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP_MedicationCat" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medication-category-merit9-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP_MedicationCat" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
